--- a/BackTest/2019-10-18 BackTest WET.xlsx
+++ b/BackTest/2019-10-18 BackTest WET.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>5.175</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-27.27272727272742</v>
+      </c>
       <c r="L13" t="n">
         <v>5.171</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20.00000000000036</v>
+      </c>
       <c r="L14" t="n">
         <v>5.168</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-20.00000000000036</v>
+      </c>
       <c r="L15" t="n">
         <v>5.166</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.1400000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.28571428571392</v>
+      </c>
       <c r="L16" t="n">
         <v>5.164000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.160000000000001</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>25.00000000000028</v>
+      </c>
       <c r="L17" t="n">
         <v>5.167</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.160000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>25.00000000000028</v>
+      </c>
       <c r="L18" t="n">
         <v>5.169</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.160000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>66.66666666666518</v>
+      </c>
       <c r="L19" t="n">
         <v>5.170999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.160000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>5.174999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>5.183999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>5.19</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.2600000000000016</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>5.19</v>
@@ -1466,7 +1488,7 @@
         <v>0.3100000000000014</v>
       </c>
       <c r="K24" t="n">
-        <v>7.142857142856962</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L24" t="n">
         <v>5.194999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.3100000000000014</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111082</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L25" t="n">
         <v>5.199999999999998</v>
@@ -1564,7 +1586,7 @@
         <v>0.3200000000000021</v>
       </c>
       <c r="K26" t="n">
-        <v>14.2857142857142</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L26" t="n">
         <v>5.205999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.3300000000000018</v>
       </c>
       <c r="K27" t="n">
-        <v>30.76923076923061</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="L27" t="n">
         <v>5.210999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.4400000000000013</v>
       </c>
       <c r="K28" t="n">
-        <v>49.99999999999976</v>
+        <v>57.14285714285683</v>
       </c>
       <c r="L28" t="n">
         <v>5.226999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>1.090000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>82.17821782178206</v>
+        <v>87.09677419354828</v>
       </c>
       <c r="L29" t="n">
         <v>5.308</v>
@@ -1760,7 +1782,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>83.99999999999984</v>
+        <v>84.44444444444439</v>
       </c>
       <c r="L30" t="n">
         <v>5.388</v>
@@ -1809,7 +1831,7 @@
         <v>1.230000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>64.28571428571429</v>
+        <v>61.1650485436893</v>
       </c>
       <c r="L31" t="n">
         <v>5.451000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>1.230000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>63.30275229357798</v>
+        <v>71.13402061855676</v>
       </c>
       <c r="L32" t="n">
         <v>5.514</v>
@@ -1911,7 +1933,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>56.14035087719288</v>
+        <v>60.82474226804118</v>
       </c>
       <c r="L33" t="n">
         <v>5.578</v>
@@ -1962,7 +1984,7 @@
         <v>1.680000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>15.58441558441559</v>
+        <v>13.86861313868616</v>
       </c>
       <c r="L34" t="n">
         <v>5.597</v>
